--- a/Reports/Conclusion/Positions.xlsx
+++ b/Reports/Conclusion/Positions.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Conclusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D4E1E7-029A-4873-AF2E-B6FFE91C4AA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0EC2A-61CC-458D-A287-97213B577DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -518,18 +518,6 @@
   <si>
     <t>Logistics(7)</t>
   </si>
-  <si>
-    <t>Average of Sale(new graduate)</t>
-  </si>
-  <si>
-    <t>Average of Sale(1-3)</t>
-  </si>
-  <si>
-    <t>Average of Sale(4-6)</t>
-  </si>
-  <si>
-    <t>Average of Sale(7)</t>
-  </si>
 </sst>
 </file>
 
@@ -573,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -601,11 +589,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,7 +722,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +810,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43657.603666782408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="56" xr:uid="{ECAF003C-9591-4D61-B9DE-70C0F71EC50F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43664.397277083335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="56" xr:uid="{689215B2-FF13-404D-A88B-8FEB3D1D5BEB}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table9"/>
   </cacheSource>
@@ -1096,10 +1203,14 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="750" maxValue="2000"/>
     </cacheField>
     <cacheField name="Claim Officer(new graduate)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Claim Officer(1-3)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Claim Officer(4-6)" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -1332,8 +1443,8 @@
     <n v="500"/>
     <n v="1000"/>
     <n v="2000"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <n v="250"/>
@@ -1495,8 +1606,8 @@
     <n v="500"/>
     <n v="800"/>
     <n v="1000"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <n v="230"/>
@@ -1658,8 +1769,8 @@
     <n v="350"/>
     <n v="500"/>
     <n v="800"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -1821,8 +1932,8 @@
     <n v="180"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -1984,8 +2095,8 @@
     <n v="300"/>
     <n v="500"/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -2147,8 +2258,8 @@
     <n v="370"/>
     <n v="650"/>
     <n v="750"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -2310,8 +2421,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -2473,8 +2584,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -2636,8 +2747,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -2799,8 +2910,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -2962,8 +3073,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3125,8 +3236,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3288,8 +3399,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3451,8 +3562,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3614,8 +3725,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3777,8 +3888,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3940,8 +4051,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4103,8 +4214,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4266,8 +4377,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4429,8 +4540,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4592,8 +4703,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4755,8 +4866,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4918,8 +5029,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5081,8 +5192,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5244,8 +5355,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5407,8 +5518,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5570,8 +5681,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5733,8 +5844,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5896,8 +6007,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -6059,8 +6170,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -6222,8 +6333,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -6385,8 +6496,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -6548,8 +6659,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -6711,8 +6822,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -6874,8 +6985,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -7037,8 +7148,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -7200,8 +7311,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -7363,8 +7474,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -7526,8 +7637,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -7689,8 +7800,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -7852,8 +7963,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8015,8 +8126,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8178,8 +8289,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8341,8 +8452,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8504,8 +8615,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8667,8 +8778,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8830,8 +8941,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -8993,8 +9104,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -9156,8 +9267,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -9319,8 +9430,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -9482,8 +9593,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -9645,8 +9756,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -9808,8 +9919,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -9971,8 +10082,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -10134,8 +10245,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -10297,8 +10408,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -10334,62 +10445,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CC00692-F09B-4C1D-81BC-148D08987142}" name="PivotData" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD7B25DA-E77B-48C5-862A-6958C6CCA7D5}" name="RawData" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="161">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10498,33 +10556,70 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Average of Sale(new graduate)" fld="49" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Average of Sale(1-3)" fld="50" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Average of Sale(4-6)" fld="51" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Average of Sale(7)" fld="52" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10969,50 +11064,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF8CA53-C895-4E50-8F5B-10022D85BBE3}">
-  <dimension ref="A3:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9983F0E-7C74-4B1E-BF41-955BEDB56475}">
+  <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>231.70111972437553</v>
-      </c>
-      <c r="B4" s="17">
-        <v>330.17642341619887</v>
-      </c>
-      <c r="C4" s="17">
-        <v>506.2119856887299</v>
-      </c>
-      <c r="D4" s="17">
-        <v>855.66860465116281</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11022,7 +11183,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ44" sqref="AZ44"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
